--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -164,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -172,52 +172,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -230,34 +190,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,288 +696,288 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="7"/>
+    <col min="1" max="1" width="30.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="11">
         <v>474885885</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="12">
         <v>45802</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="14">
         <v>6345011371</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="15">
         <v>46602</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="14">
         <v>6345011371</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="15">
         <v>46466</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="14">
         <v>7743696750</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="15">
         <v>46448</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="6"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="14">
         <v>7743696750</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="15">
         <v>46485</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>4632126284</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="15">
         <v>46001</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="42" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="14">
         <v>7813111341</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="15">
         <v>46011</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="42" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="14">
         <v>3435900531</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="15">
         <v>46327</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="42" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="14">
         <v>1328028538</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="15">
         <v>46587</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="57" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="14">
         <v>1328028538</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="15">
         <v>45801</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>7801319747</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="15">
         <v>45800</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="49.8" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>4705066128</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="15">
@@ -1016,12 +985,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">

--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>ИНН</t>
   </si>
@@ -96,14 +96,10 @@
     <t>Организационно-правовая форма</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Название компании</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Булка</t>
   </si>
   <si>
-    <t>АРТЕКС</t>
+    <t>Название компании</t>
   </si>
 </sst>
 </file>
@@ -138,7 +134,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +159,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,11 +174,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -199,34 +229,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -713,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="41.4" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>22</v>
@@ -734,7 +782,7 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>3</v>
@@ -944,45 +992,33 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="19">
         <v>7801319747</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="20">
         <v>45800</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="49.8" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="14">
-        <v>4705066128</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="15">
-        <v>46527</v>
-      </c>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="7"/>
@@ -1003,6 +1039,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -1255,14 +1299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1273,6 +1309,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1291,23 +1344,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>

--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>ИНН</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Название компании</t>
+  </si>
+  <si>
+    <t>ГАЗПРОМ ИНТЕРНЕШНЛ</t>
+  </si>
+  <si>
+    <t>АРТЕКС</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,12 +162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -226,9 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -266,15 +263,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,7 +732,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -760,273 +748,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>474885885</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>45802</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>6345011371</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>46602</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>6345011371</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>46466</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>7743696750</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>46448</v>
       </c>
       <c r="G5" s="6"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>7743696750</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>46485</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>4632126284</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>46001</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="42" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>7813111341</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>46011</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="42" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>3435900531</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>46327</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="42" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1328028538</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>46587</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="57" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>1328028538</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>45801</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>7801319747</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>45800</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="49.8" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+    <row r="13" spans="1:10" ht="48.6" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4705066128</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="14">
+        <v>46527</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+    <row r="14" spans="1:10" ht="26.4" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>3900005663</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="14">
+        <v>46374</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
@@ -1039,11 +1049,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,27 +1311,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1345,9 +1346,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>ИНН</t>
   </si>
@@ -102,10 +102,13 @@
     <t>Название компании</t>
   </si>
   <si>
-    <t>ГАЗПРОМ ИНТЕРНЕШНЛ</t>
-  </si>
-  <si>
     <t>АРТЕКС</t>
+  </si>
+  <si>
+    <t>ГАЗПРОМ ИНТЕРНЭШНЛ ЛИМИТЕД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международная компания общество с ограниченной отвественностью </t>
   </si>
 </sst>
 </file>
@@ -732,12 +735,12 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="4" customWidth="1"/>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="13" spans="1:10" ht="48.6" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>3</v>
@@ -1020,12 +1023,12 @@
         <v>46527</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.4" customHeight="1">
+    <row r="14" spans="1:10" ht="45" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C14" s="13">
         <v>3900005663</v>
@@ -1058,6 +1061,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -1310,14 +1321,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>
@@ -1327,6 +1330,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1343,21 +1363,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>ИНН</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">Международная компания общество с ограниченной отвественностью </t>
+  </si>
+  <si>
+    <t>не указана</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1036,9 @@
       <c r="C14" s="13">
         <v>3900005663</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="13" t="s">
         <v>6</v>
       </c>
@@ -1061,14 +1066,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -1321,6 +1318,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>
@@ -1330,23 +1335,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1363,4 +1351,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +112,7 @@
     <t xml:space="preserve">Международная компания общество с ограниченной отвественностью </t>
   </si>
   <si>
-    <t>не указана</t>
+    <t>Росстандарт</t>
   </si>
 </sst>
 </file>
@@ -737,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1026,7 +1027,7 @@
         <v>46527</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" customHeight="1">
+    <row r="14" spans="1:10" ht="57" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1057,15 +1058,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -1318,6 +1310,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1327,14 +1328,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1349,6 +1342,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>ИНН</t>
   </si>
@@ -113,13 +112,49 @@
   </si>
   <si>
     <t>Росстандарт</t>
+  </si>
+  <si>
+    <t>Акционерное общество «РУСАЛ Ачинский Глиноземный Комбинат» (АО «РУСАЛ Ачинск»)</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РУСАЛ ТАЙШЕТСКИЙ АЛЮМИНИЕВЫЙ ЗАВОД" (ООО «РУСАЛ Тайшет»)</t>
+  </si>
+  <si>
+    <t>Филиал АО «РУСАЛ Урал» в Каменске-Уральском «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t>ООО «КраМЗ»</t>
+  </si>
+  <si>
+    <t>ООО «Богословский кабельный завод» (Краснотурьинск)</t>
+  </si>
+  <si>
+    <t>АО "РУСАЛ Менеджмент"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Корсис»</t>
+  </si>
+  <si>
+    <t>Акционерное общество «РУСАЛ Бокситогорский глинозём»</t>
+  </si>
+  <si>
+    <t>Филиал АО «РУСАЛ Урал» в Краснотурьинске «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t>Акционерное общество «Богучанский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОБЪЕДИНЕННАЯ КОМПАНИЯ РУСАЛ АНОДНАЯ ФАБРИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +181,41 @@
       <name val="Calibri (Body)"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +240,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDA4A4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7FFC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FB4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -209,11 +355,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -270,6 +629,180 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1045,6 +1578,406 @@
       </c>
       <c r="F14" s="14">
         <v>46374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2">
+      <c r="A15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="64">
+        <v>2443005570</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="39">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="64">
+        <v>2443005570</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="39">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.8" thickBot="1">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="66">
+        <v>2443005570</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="43">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57.6">
+      <c r="A18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="68">
+        <v>3815011264</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="46">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57.6">
+      <c r="A19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="64">
+        <v>3815011264</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="39">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="58.2" thickBot="1">
+      <c r="A20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="66">
+        <v>3815011264</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="43">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.8" thickBot="1">
+      <c r="A21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="70">
+        <v>6612005052</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="51">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="68">
+        <v>2465043748</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="46">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1">
+      <c r="A23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="66">
+        <v>2465043748</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="43">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="72">
+        <v>6617026384</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="55">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="68">
+        <v>7730248430</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="56">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="64">
+        <v>7730248430</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="56">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
+      <c r="A27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="66">
+        <v>7730248430</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="57">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="74">
+        <v>9731010353</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="60">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A29" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="74">
+        <v>4701000013</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="60">
+        <v>46587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="58.2" thickBot="1">
+      <c r="A30" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="74">
+        <v>6612005052</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="60">
+        <v>46503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8">
+      <c r="A31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="64">
+        <v>2465102746</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="61">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8">
+      <c r="A32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="64">
+        <v>2465102746</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="39">
+        <v>46355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A33" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="66">
+        <v>2465102746</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="39">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.2">
+      <c r="A34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="64">
+        <v>7709788673</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="62">
+        <v>46597</v>
       </c>
     </row>
   </sheetData>
@@ -1311,20 +2244,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1347,16 +2280,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1364,9 +2290,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>ИНН</t>
   </si>
@@ -114,47 +114,53 @@
     <t>Росстандарт</t>
   </si>
   <si>
-    <t>Акционерное общество «РУСАЛ Ачинский Глиноземный Комбинат» (АО «РУСАЛ Ачинск»)</t>
-  </si>
-  <si>
-    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РУСАЛ ТАЙШЕТСКИЙ АЛЮМИНИЕВЫЙ ЗАВОД" (ООО «РУСАЛ Тайшет»)</t>
-  </si>
-  <si>
-    <t>Филиал АО «РУСАЛ Урал» в Каменске-Уральском «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
-  </si>
-  <si>
-    <t>ООО «КраМЗ»</t>
-  </si>
-  <si>
-    <t>ООО «Богословский кабельный завод» (Краснотурьинск)</t>
-  </si>
-  <si>
-    <t>АО "РУСАЛ Менеджмент"</t>
-  </si>
-  <si>
-    <t>Общество с ограниченной ответственностью «Корсис»</t>
-  </si>
-  <si>
-    <t>Акционерное общество «РУСАЛ Бокситогорский глинозём»</t>
-  </si>
-  <si>
-    <t>Филиал АО «РУСАЛ Урал» в Краснотурьинске «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
-  </si>
-  <si>
-    <t>Акционерное общество «Богучанский алюминиевый завод»</t>
-  </si>
-  <si>
-    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОБЪЕДИНЕННАЯ КОМПАНИЯ РУСАЛ АНОДНАЯ ФАБРИКА"</t>
-  </si>
-  <si>
     <t xml:space="preserve">ООО </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «КраМЗ»</t>
+  </si>
+  <si>
+    <t>«Богословский кабельный завод» (Краснотурьинск)</t>
+  </si>
+  <si>
+    <t>"РУСАЛ Менеджмент"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "РУСАЛ Менеджмент"</t>
+  </si>
+  <si>
+    <t>«Корсис»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «РУСАЛ Бокситогорский глинозём»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «РУСАЛ Урал» в Каменске-Уральском «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «Богучанский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t>"ОБЪЕДИНЕННАЯ КОМПАНИЯ РУСАЛ АНОДНАЯ ФАБРИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "РУСАЛ ТАЙШЕТСКИЙ АЛЮМИНИЕВЫЙ ЗАВОД"</t>
+  </si>
+  <si>
+    <t>«РУСАЛ Урал» в Краснотурьинске «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «РУСАЛ Ачинский Глиноземный Комбинат»</t>
+  </si>
+  <si>
+    <t>«РУСАЛ Ачинский Глиноземный Комбинат»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,15 +191,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -631,178 +628,178 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1271,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1580,403 +1577,403 @@
         <v>46374</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:10" ht="28.8">
+      <c r="A15" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="45">
+        <v>2443005570</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="22">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="A16" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="45">
+        <v>2443005570</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="22">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A17" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="47">
+        <v>2443005570</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="26">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8">
+      <c r="A18" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="49">
+        <v>3815011264</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="29">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8">
+      <c r="A19" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="45">
+        <v>3815011264</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A20" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="47">
+        <v>3815011264</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="26">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.8" thickBot="1">
+      <c r="A21" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="51">
+        <v>6612005052</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="34">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="49">
+        <v>2465043748</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="29">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1">
+      <c r="A23" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="47">
+        <v>2465043748</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="26">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A24" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="53">
+        <v>6617026384</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="38">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="49">
+        <v>7730248430</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="76">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="45">
+        <v>7730248430</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="76">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
+      <c r="A27" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="47">
+        <v>7730248430</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="77">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1">
+      <c r="A28" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="55">
+        <v>9731010353</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="41">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="A29" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="55">
+        <v>4701000013</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="41">
+        <v>46587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.8" thickBot="1">
+      <c r="A30" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="55">
+        <v>6612005052</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="41">
+        <v>46503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="45">
+        <v>2465102746</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="42">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="45">
+        <v>2465102746</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="22">
+        <v>46355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="47">
+        <v>2465102746</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="22">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8">
+      <c r="A34" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="64">
-        <v>2443005570</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="C34" s="45">
+        <v>7709788673</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="39">
-        <v>45984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2">
-      <c r="A16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="64">
-        <v>2443005570</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="39">
-        <v>45984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="66">
-        <v>2443005570</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="43">
-        <v>45992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="57.6">
-      <c r="A18" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="68">
-        <v>3815011264</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="46">
-        <v>45961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="57.6">
-      <c r="A19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="64">
-        <v>3815011264</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="39">
-        <v>46376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="58.2" thickBot="1">
-      <c r="A20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="66">
-        <v>3815011264</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="43">
-        <v>46376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="70">
-        <v>6612005052</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="51">
-        <v>46012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="68">
-        <v>2465043748</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="46">
-        <v>46009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1">
-      <c r="A23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="66">
-        <v>2465043748</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="43">
-        <v>46009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="72">
-        <v>6617026384</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="55">
-        <v>45986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="68">
-        <v>7730248430</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="56">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="64">
-        <v>7730248430</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="56">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="66">
-        <v>7730248430</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="57">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A28" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="74">
-        <v>9731010353</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="60">
-        <v>46100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A29" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="74">
-        <v>4701000013</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="60">
-        <v>46587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="58.2" thickBot="1">
-      <c r="A30" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="74">
-        <v>6612005052</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="60">
-        <v>46503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8">
-      <c r="A31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="64">
-        <v>2465102746</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="61">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8">
-      <c r="A32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="64">
-        <v>2465102746</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="39">
-        <v>46355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="66">
-        <v>2465102746</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="39">
-        <v>46376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="43.2">
-      <c r="A34" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="64">
-        <v>7709788673</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="62">
+      <c r="F34" s="43">
         <v>46597</v>
       </c>
     </row>
@@ -2244,20 +2241,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2280,6 +2277,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2294,12 +2299,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
   <si>
     <t>ИНН</t>
   </si>
@@ -117,43 +118,40 @@
     <t xml:space="preserve">ООО </t>
   </si>
   <si>
-    <t xml:space="preserve"> «КраМЗ»</t>
-  </si>
-  <si>
-    <t>«Богословский кабельный завод» (Краснотурьинск)</t>
-  </si>
-  <si>
-    <t>"РУСАЛ Менеджмент"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "РУСАЛ Менеджмент"</t>
-  </si>
-  <si>
-    <t>«Корсис»</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> «РУСАЛ Бокситогорский глинозём»</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> «РУСАЛ Урал» в Каменске-Уральском «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> «Богучанский алюминиевый завод»</t>
-  </si>
-  <si>
-    <t>"ОБЪЕДИНЕННАЯ КОМПАНИЯ РУСАЛ АНОДНАЯ ФАБРИКА"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "РУСАЛ ТАЙШЕТСКИЙ АЛЮМИНИЕВЫЙ ЗАВОД"</t>
-  </si>
-  <si>
-    <t>«РУСАЛ Урал» в Краснотурьинске «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> «РУСАЛ Ачинский Глиноземный Комбинат»</t>
-  </si>
-  <si>
-    <t>«РУСАЛ Ачинский Глиноземный Комбинат»</t>
+    <t xml:space="preserve"> РУСАЛ Ачинский Глиноземный Комбинат</t>
+  </si>
+  <si>
+    <t>РУСАЛ Ачинский Глиноземный Комбинат</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РУСАЛ ТАЙШЕТСКИЙ АЛЮМИНИЕВЫЙ ЗАВОД</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КраМЗ</t>
+  </si>
+  <si>
+    <t>Богословский кабельный завод</t>
+  </si>
+  <si>
+    <t>ОБЪЕДИНЕННАЯ КОМПАНИЯ РУСАЛ АНОДНАЯ ФАБРИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Богучанский алюминиевый завод</t>
+  </si>
+  <si>
+    <t>«РУСАЛ Урал» «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РУСАЛ Бокситогорский глинозём</t>
+  </si>
+  <si>
+    <t>Корсис</t>
+  </si>
+  <si>
+    <t>РУСАЛ Менеджмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «РУСАЛ Урал» «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
   </si>
 </sst>
 </file>
@@ -188,9 +186,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -201,12 +198,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -628,121 +624,121 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,15 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -796,11 +783,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1268,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1579,7 +1575,7 @@
     </row>
     <row r="15" spans="1:10" ht="28.8">
       <c r="A15" s="59" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>9</v>
@@ -1599,7 +1595,7 @@
     </row>
     <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="59" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>9</v>
@@ -1619,7 +1615,7 @@
     </row>
     <row r="17" spans="1:6" ht="29.4" thickBot="1">
       <c r="A17" s="60" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>9</v>
@@ -1639,7 +1635,7 @@
     </row>
     <row r="18" spans="1:6" ht="28.8">
       <c r="A18" s="61" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>3</v>
@@ -1659,7 +1655,7 @@
     </row>
     <row r="19" spans="1:6" ht="28.8">
       <c r="A19" s="62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>3</v>
@@ -1679,7 +1675,7 @@
     </row>
     <row r="20" spans="1:6" ht="29.4" thickBot="1">
       <c r="A20" s="63" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>3</v>
@@ -1697,9 +1693,9 @@
         <v>46376</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="43.8" thickBot="1">
+    <row r="21" spans="1:6" ht="48.6" customHeight="1" thickBot="1">
       <c r="A21" s="64" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>9</v>
@@ -1719,7 +1715,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>3</v>
@@ -1739,7 +1735,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="66" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>3</v>
@@ -1757,9 +1753,9 @@
         <v>46009</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.4" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>3</v>
@@ -1778,8 +1774,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="68" t="s">
-        <v>32</v>
+      <c r="A25" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>9</v>
@@ -1793,13 +1789,13 @@
       <c r="E25" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="73">
         <v>45657</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="69" t="s">
-        <v>32</v>
+      <c r="A26" s="76" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>9</v>
@@ -1813,13 +1809,13 @@
       <c r="E26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="73">
         <v>45657</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="70" t="s">
-        <v>33</v>
+      <c r="A27" s="77" t="s">
+        <v>40</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>9</v>
@@ -1833,13 +1829,13 @@
       <c r="E27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="74">
         <v>45657</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="71" t="s">
-        <v>34</v>
+      <c r="A28" s="68" t="s">
+        <v>39</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>3</v>
@@ -1858,8 +1854,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
-      <c r="A29" s="72" t="s">
-        <v>35</v>
+      <c r="A29" s="69" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>9</v>
@@ -1878,8 +1874,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A30" s="71" t="s">
-        <v>40</v>
+      <c r="A30" s="68" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>9</v>
@@ -1898,8 +1894,8 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="73" t="s">
-        <v>37</v>
+      <c r="A31" s="70" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="56" t="s">
         <v>9</v>
@@ -1918,8 +1914,8 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="73" t="s">
-        <v>37</v>
+      <c r="A32" s="70" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="56" t="s">
         <v>9</v>
@@ -1938,8 +1934,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="74" t="s">
-        <v>37</v>
+      <c r="A33" s="71" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>9</v>
@@ -1958,8 +1954,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8">
-      <c r="A34" s="75" t="s">
-        <v>38</v>
+      <c r="A34" s="72" t="s">
+        <v>35</v>
       </c>
       <c r="B34" s="58" t="s">
         <v>29</v>
@@ -1988,6 +1984,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -2240,24 +2253,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2274,29 +2295,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,9 +138,6 @@
     <t xml:space="preserve"> Богучанский алюминиевый завод</t>
   </si>
   <si>
-    <t>«РУСАЛ Урал» «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
-  </si>
-  <si>
     <t xml:space="preserve"> РУСАЛ Бокситогорский глинозём</t>
   </si>
   <si>
@@ -151,7 +147,10 @@
     <t>РУСАЛ Менеджмент</t>
   </si>
   <si>
-    <t xml:space="preserve"> «РУСАЛ Урал» «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
+    <t xml:space="preserve"> «РУСАЛ Урал» в Каменске-Уральском «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t>«РУСАЛ Урал» в Краснотурьинске «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1264,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1695,7 +1694,7 @@
     </row>
     <row r="21" spans="1:6" ht="48.6" customHeight="1" thickBot="1">
       <c r="A21" s="64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>9</v>
@@ -1775,7 +1774,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>9</v>
@@ -1795,7 +1794,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>9</v>
@@ -1815,7 +1814,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>9</v>
@@ -1835,7 +1834,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
       <c r="A28" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>3</v>
@@ -1855,7 +1854,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>9</v>
@@ -1875,7 +1874,7 @@
     </row>
     <row r="30" spans="1:6" ht="43.8" thickBot="1">
       <c r="A30" s="68" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>9</v>
@@ -1992,15 +1991,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -2253,6 +2243,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
@@ -2271,14 +2270,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2295,4 +2286,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>ИНН</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>«РУСАЛ Урал» в Краснотурьинске «Объединенная компания РУСАЛ Богословский алюминиевый завод»</t>
+  </si>
+  <si>
+    <t>ВАЗ Импульс</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -516,21 +519,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,22 +537,44 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -689,9 +699,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,9 +742,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,9 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,6 +797,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1573,13 +1598,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <v>2443005570</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1593,13 +1618,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>2443005570</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -1613,13 +1638,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="46">
         <v>2443005570</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -1633,13 +1658,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="48">
         <v>3815011264</v>
       </c>
       <c r="D18" s="27" t="s">
@@ -1653,13 +1678,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
         <v>3815011264</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -1673,13 +1698,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <v>3815011264</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -1693,13 +1718,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="48.6" customHeight="1" thickBot="1">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>6612005052</v>
       </c>
       <c r="D21" s="32" t="s">
@@ -1713,13 +1738,13 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="48">
         <v>2465043748</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -1733,13 +1758,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="46">
         <v>2465043748</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -1753,13 +1778,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="52">
         <v>6617026384</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -1773,13 +1798,13 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="48">
         <v>7730248430</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -1788,18 +1813,18 @@
       <c r="E25" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="70">
         <v>45657</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="44">
         <v>7730248430</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -1808,18 +1833,18 @@
       <c r="E26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="70">
         <v>45657</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="46">
         <v>7730248430</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -1828,18 +1853,18 @@
       <c r="E27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="71">
         <v>45657</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <v>9731010353</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1853,13 +1878,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <v>4701000013</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -1873,13 +1898,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="54">
         <v>6612005052</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -1893,13 +1918,13 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="44">
         <v>2465102746</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -1913,13 +1938,13 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="44">
         <v>2465102746</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -1932,14 +1957,14 @@
         <v>46355</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:6" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A33" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="46">
         <v>2465102746</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -1953,23 +1978,43 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="76">
         <v>7709788673</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="23" t="s">
+      <c r="D34" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="79">
         <v>46597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="81">
+        <v>7722384856</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="82">
+        <v>46405</v>
       </c>
     </row>
   </sheetData>

--- a/TRAILPORTAL.xlsx
+++ b/TRAILPORTAL.xlsx
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +209,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,80 +243,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCECFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDA4A4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA7FFC4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FB4FF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -571,10 +505,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,198 +568,148 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1288,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1301,7 +1186,9 @@
     <col min="5" max="5" width="32.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.109375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="3"/>
+    <col min="8" max="10" width="8.77734375" style="3"/>
+    <col min="11" max="12" width="8.77734375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="41.4" customHeight="1">
@@ -1598,422 +1485,422 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="21">
         <v>2443005570</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="24">
         <v>45984</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="21">
         <v>2443005570</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="24">
         <v>45984</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="28">
         <v>2443005570</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="31">
         <v>45992</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="34">
         <v>3815011264</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="37">
         <v>45961</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="21">
         <v>3815011264</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="24">
         <v>46376</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="28">
         <v>3815011264</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="D20" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="31">
         <v>46376</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="48.6" customHeight="1" thickBot="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="42">
         <v>6612005052</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="45">
         <v>46012</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="34">
         <v>2465043748</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="35" t="s">
+      <c r="D22" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="37">
         <v>46009</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="28">
         <v>2465043748</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="31">
         <v>46009</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="42">
         <v>6617026384</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="37" t="s">
+      <c r="D24" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="45">
         <v>45986</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="34">
         <v>7730248430</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="35" t="s">
+      <c r="D25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="50">
         <v>45657</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="21">
         <v>7730248430</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="50">
         <v>45657</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="28">
         <v>7730248430</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="53">
         <v>45657</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="42">
         <v>9731010353</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="40" t="s">
+      <c r="D28" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="45">
         <v>46100</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="42">
         <v>4701000013</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="40" t="s">
+      <c r="D29" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="45">
         <v>46587</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="42">
         <v>6612005052</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="40" t="s">
+      <c r="D30" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="45">
         <v>46503</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="21">
         <v>2465102746</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="55">
         <v>45835</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="21">
         <v>2465102746</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="24">
         <v>46355</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="28">
         <v>2465102746</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="24">
         <v>46376</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="59">
         <v>7709788673</v>
       </c>
-      <c r="D34" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="78" t="s">
+      <c r="D34" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="79">
+      <c r="F34" s="62">
         <v>46597</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="64">
         <v>7722384856</v>
       </c>
-      <c r="D35" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="81" t="s">
+      <c r="D35" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="65">
         <v>46405</v>
       </c>
     </row>
@@ -2036,6 +1923,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -2288,33 +2184,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2331,12 +2226,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>